--- a/JESINTA SOILA.xlsx
+++ b/JESINTA SOILA.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showObjects="none" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ASSETFLOW-PC\Desktop\FLORENCE\CLIENTS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="930" windowWidth="17475" windowHeight="10965" firstSheet="16" activeTab="21"/>
+    <workbookView xWindow="1200" yWindow="930" windowWidth="17475" windowHeight="10965" firstSheet="17" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="MARCH 20" sheetId="1" r:id="rId1"/>
@@ -35,12 +30,12 @@
     <sheet name="NOVEMBER 21" sheetId="21" r:id="rId21"/>
     <sheet name="DECEMBER 21" sheetId="22" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="220">
   <si>
     <t xml:space="preserve">RENT STATEMENT </t>
   </si>
@@ -691,12 +686,21 @@
   </si>
   <si>
     <t>sophia</t>
+  </si>
+  <si>
+    <t>PAID ON 8/12</t>
+  </si>
+  <si>
+    <t>KAMAU</t>
+  </si>
+  <si>
+    <t>ELECTRICITY -OCT+NOV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
@@ -975,7 +979,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1010,7 +1014,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7388,7 +7392,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8329,7 +8333,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8675,24 +8679,24 @@
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F12" s="3">
-        <v>540</v>
+        <v>270</v>
       </c>
       <c r="G12" s="3">
         <v>3000</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="0"/>
-        <v>3840</v>
+        <v>3420</v>
       </c>
       <c r="I12" s="30">
         <v>2000</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="1"/>
-        <v>1840</v>
+        <v>1420</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -8964,11 +8968,11 @@
       </c>
       <c r="E20" s="3">
         <f t="shared" si="2"/>
-        <v>2720</v>
+        <v>2570</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="2"/>
-        <v>2160</v>
+        <v>1890</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="2"/>
@@ -8976,7 +8980,7 @@
       </c>
       <c r="H20" s="2">
         <f t="shared" si="2"/>
-        <v>55130</v>
+        <v>54710</v>
       </c>
       <c r="I20" s="31">
         <f t="shared" si="2"/>
@@ -8984,7 +8988,7 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" si="2"/>
-        <v>9790</v>
+        <v>9370</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="2"/>
@@ -9718,7 +9722,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3">
         <f>'JULY 21'!J12:J27</f>
-        <v>1840</v>
+        <v>1420</v>
       </c>
       <c r="E12" s="3">
         <v>150</v>
@@ -9731,12 +9735,12 @@
       </c>
       <c r="H12" s="3">
         <f t="shared" si="0"/>
-        <v>5260</v>
+        <v>4840</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="3">
         <f t="shared" si="1"/>
-        <v>5260</v>
+        <v>4840</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -10008,7 +10012,7 @@
       </c>
       <c r="D20" s="3">
         <f>SUM(D6:D19)</f>
-        <v>9290</v>
+        <v>8870</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" ref="E20:L20" si="2">SUM(E5:E19)</f>
@@ -10024,7 +10028,7 @@
       </c>
       <c r="H20" s="2">
         <f t="shared" si="2"/>
-        <v>59910</v>
+        <v>59490</v>
       </c>
       <c r="I20" s="31">
         <f t="shared" si="2"/>
@@ -10032,7 +10036,7 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" si="2"/>
-        <v>20100</v>
+        <v>19680</v>
       </c>
       <c r="K20" s="2">
         <f>SUM(K5:K19)</f>
@@ -10840,7 +10844,7 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3">
         <f>'AUGUST 21'!J12:J27</f>
-        <v>5260</v>
+        <v>4840</v>
       </c>
       <c r="D12" s="3">
         <v>150</v>
@@ -10853,7 +10857,7 @@
       </c>
       <c r="G12" s="3">
         <f t="shared" si="0"/>
-        <v>8680</v>
+        <v>8260</v>
       </c>
       <c r="H12" s="30">
         <f>4000+1500</f>
@@ -10861,7 +10865,7 @@
       </c>
       <c r="I12" s="3">
         <f t="shared" si="1"/>
-        <v>3180</v>
+        <v>2760</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -11093,7 +11097,7 @@
       </c>
       <c r="C20" s="3">
         <f>SUM(C5:C19)</f>
-        <v>12450</v>
+        <v>12030</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" ref="D20:K20" si="2">SUM(D5:D19)</f>
@@ -11109,7 +11113,7 @@
       </c>
       <c r="G20" s="2">
         <f t="shared" si="2"/>
-        <v>52300</v>
+        <v>51880</v>
       </c>
       <c r="H20" s="31">
         <f t="shared" si="2"/>
@@ -11117,7 +11121,7 @@
       </c>
       <c r="I20" s="2">
         <f t="shared" si="2"/>
-        <v>8870</v>
+        <v>8450</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="2"/>
@@ -12385,7 +12389,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12723,7 +12727,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3">
         <f>'SEPT 21'!I12:I26</f>
-        <v>3180</v>
+        <v>2760</v>
       </c>
       <c r="E12" s="3">
         <v>150</v>
@@ -12736,7 +12740,7 @@
       </c>
       <c r="H12" s="3">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>6180</v>
       </c>
       <c r="I12" s="30">
         <f>1000+3000</f>
@@ -12744,7 +12748,7 @@
       </c>
       <c r="J12" s="3">
         <f t="shared" si="1"/>
-        <v>2600</v>
+        <v>2180</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -13011,7 +13015,7 @@
       </c>
       <c r="D20" s="3">
         <f>SUM(D5:D19)</f>
-        <v>8230</v>
+        <v>7810</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" ref="E20:L20" si="2">SUM(E5:E19)</f>
@@ -13027,7 +13031,7 @@
       </c>
       <c r="H20" s="2">
         <f t="shared" si="2"/>
-        <v>63500</v>
+        <v>63080</v>
       </c>
       <c r="I20" s="31">
         <f t="shared" si="2"/>
@@ -13035,7 +13039,7 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" si="2"/>
-        <v>16740</v>
+        <v>16320</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="2"/>
@@ -13418,8 +13422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13745,7 +13749,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3">
         <f>'OCTOBER 21'!J12</f>
-        <v>2600</v>
+        <v>2180</v>
       </c>
       <c r="E12" s="3">
         <v>150</v>
@@ -13758,12 +13762,12 @@
       </c>
       <c r="H12" s="3">
         <f t="shared" si="0"/>
-        <v>6020</v>
+        <v>5600</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="3">
         <f t="shared" si="1"/>
-        <v>6020</v>
+        <v>5600</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -14026,10 +14030,10 @@
       </c>
       <c r="D20" s="3">
         <f>SUM(D5:D19)</f>
-        <v>16740</v>
+        <v>16320</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" ref="E20:L20" si="2">SUM(E5:E19)</f>
+        <f t="shared" ref="E20:K20" si="2">SUM(E5:E19)</f>
         <v>1650</v>
       </c>
       <c r="F20" s="3">
@@ -14042,7 +14046,7 @@
       </c>
       <c r="H20" s="2">
         <f t="shared" si="2"/>
-        <v>64510</v>
+        <v>64090</v>
       </c>
       <c r="I20" s="31">
         <f t="shared" si="2"/>
@@ -14050,14 +14054,14 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" si="2"/>
-        <v>25900</v>
+        <v>25480</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="2"/>
         <v>570</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" si="2"/>
+        <f>SUM(L5:L19)</f>
         <v>810</v>
       </c>
       <c r="N20" s="41"/>
@@ -14235,8 +14239,7 @@
       </c>
       <c r="J29" s="16"/>
       <c r="M29">
-        <f>5600-3000</f>
-        <v>2600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -14303,10 +14306,12 @@
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="22" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="H33" s="22"/>
-      <c r="I33" s="16"/>
+      <c r="I33" s="16">
+        <v>1860</v>
+      </c>
       <c r="J33" s="16"/>
       <c r="L33" s="24"/>
     </row>
@@ -14385,11 +14390,11 @@
       </c>
       <c r="I38" s="19">
         <f>SUM(I31:I37)</f>
-        <v>40123</v>
+        <v>41983</v>
       </c>
       <c r="J38" s="19">
         <f>H38-I38</f>
-        <v>-18600</v>
+        <v>-20460</v>
       </c>
       <c r="M38" s="24"/>
     </row>
@@ -14429,10 +14434,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14440,7 +14445,7 @@
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -14547,10 +14552,12 @@
         <f>C5+D5+E5+F5+G5</f>
         <v>5500</v>
       </c>
-      <c r="I5" s="30"/>
+      <c r="I5" s="30">
+        <v>5000</v>
+      </c>
       <c r="J5" s="3">
         <f>H5-I5</f>
-        <v>5500</v>
+        <v>500</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -14578,10 +14585,12 @@
         <f t="shared" ref="H6:H19" si="0">C6+D6+E6+F6+G6</f>
         <v>16000</v>
       </c>
-      <c r="I6" s="30"/>
+      <c r="I6" s="30">
+        <v>16000</v>
+      </c>
       <c r="J6" s="3">
         <f>H6-I6</f>
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -14638,12 +14647,16 @@
         <f t="shared" si="0"/>
         <v>3550</v>
       </c>
-      <c r="I8" s="30"/>
+      <c r="I8" s="30">
+        <v>3150</v>
+      </c>
       <c r="J8" s="3">
         <f>H8-I8</f>
-        <v>3550</v>
-      </c>
-      <c r="K8" s="3"/>
+        <v>400</v>
+      </c>
+      <c r="K8" s="3">
+        <v>150</v>
+      </c>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -14669,10 +14682,12 @@
         <f t="shared" si="0"/>
         <v>4400</v>
       </c>
-      <c r="I9" s="30"/>
+      <c r="I9" s="30">
+        <v>3000</v>
+      </c>
       <c r="J9" s="3">
         <f>H9-I9</f>
-        <v>4400</v>
+        <v>1400</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -14685,21 +14700,18 @@
         <v>95</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="3">
-        <f>'NOVEMBER 21'!J10</f>
-        <v>6070</v>
-      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3">
         <f t="shared" si="0"/>
-        <v>6070</v>
+        <v>0</v>
       </c>
       <c r="I10" s="30"/>
       <c r="J10" s="3">
         <f>H10-I10</f>
-        <v>6070</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -14727,10 +14739,12 @@
         <f t="shared" si="0"/>
         <v>3150</v>
       </c>
-      <c r="I11" s="30"/>
+      <c r="I11" s="30">
+        <v>3000</v>
+      </c>
       <c r="J11" s="3">
         <f t="shared" si="1"/>
-        <v>3150</v>
+        <v>150</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -14743,21 +14757,18 @@
         <v>95</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3">
-        <f>'NOVEMBER 21'!J12</f>
-        <v>6020</v>
-      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3">
         <f t="shared" si="0"/>
-        <v>6020</v>
+        <v>0</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="3">
         <f t="shared" si="1"/>
-        <v>6020</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -14818,10 +14829,12 @@
         <f t="shared" si="0"/>
         <v>2920</v>
       </c>
-      <c r="I14" s="30"/>
+      <c r="I14" s="30">
+        <v>2500</v>
+      </c>
       <c r="J14" s="3">
         <f t="shared" si="1"/>
-        <v>2920</v>
+        <v>420</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -14884,10 +14897,12 @@
         <f t="shared" si="0"/>
         <v>5560</v>
       </c>
-      <c r="I16" s="30"/>
+      <c r="I16" s="30">
+        <v>2500</v>
+      </c>
       <c r="J16" s="3">
         <f>H16-I16</f>
-        <v>5560</v>
+        <v>3060</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -14952,13 +14967,19 @@
         <f t="shared" si="0"/>
         <v>3370</v>
       </c>
-      <c r="I18" s="30"/>
+      <c r="I18" s="30">
+        <v>2920</v>
+      </c>
       <c r="J18" s="3">
         <f>H18-I18</f>
-        <v>3370</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+        <v>450</v>
+      </c>
+      <c r="K18" s="3">
+        <v>150</v>
+      </c>
+      <c r="L18" s="3">
+        <v>270</v>
+      </c>
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -14985,11 +15006,12 @@
         <v>6550</v>
       </c>
       <c r="I19" s="30">
-        <v>4000</v>
+        <f>4000+1600</f>
+        <v>5600</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="1"/>
-        <v>2550</v>
+        <v>950</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -15005,7 +15027,7 @@
       </c>
       <c r="D20" s="3">
         <f>SUM(D5:D19)</f>
-        <v>25900</v>
+        <v>13810</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" ref="E20:L20" si="2">SUM(E5:E19)</f>
@@ -15021,23 +15043,23 @@
       </c>
       <c r="H20" s="2">
         <f t="shared" si="2"/>
-        <v>83250</v>
+        <v>71160</v>
       </c>
       <c r="I20" s="31">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>43670</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="2"/>
-        <v>79250</v>
+        <v>27490</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="N20" s="41"/>
       <c r="O20" s="16"/>
@@ -15119,7 +15141,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="17">
@@ -15129,11 +15151,11 @@
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="H25" s="17">
         <f>I20</f>
-        <v>4000</v>
+        <v>43670</v>
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
@@ -15187,7 +15209,7 @@
       </c>
       <c r="H28" s="17">
         <f>'NOVEMBER 21'!J38</f>
-        <v>-18600</v>
+        <v>-20460</v>
       </c>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
@@ -15254,6 +15276,10 @@
         <f>D25</f>
         <v>46500</v>
       </c>
+      <c r="M31" s="24">
+        <f>L33</f>
+        <v>41850</v>
+      </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32" s="22" t="s">
@@ -15277,22 +15303,35 @@
         <f>E29</f>
         <v>4650</v>
       </c>
+      <c r="M32">
+        <v>8000</v>
+      </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="22"/>
+      <c r="B33" s="22" t="s">
+        <v>218</v>
+      </c>
       <c r="C33" s="22"/>
       <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
+      <c r="E33" s="16">
+        <v>3500</v>
+      </c>
       <c r="F33" s="16"/>
       <c r="G33" s="22" t="s">
         <v>208</v>
       </c>
       <c r="H33" s="22"/>
-      <c r="I33" s="16"/>
+      <c r="I33" s="16">
+        <v>1860</v>
+      </c>
       <c r="J33" s="16"/>
       <c r="L33" s="24">
         <f>L31-L32</f>
         <v>41850</v>
+      </c>
+      <c r="M33" s="24">
+        <f>M31+M32</f>
+        <v>49850</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
@@ -15309,24 +15348,40 @@
       <c r="L34" s="24">
         <v>30000</v>
       </c>
+      <c r="M34">
+        <f>E31</f>
+        <v>30000</v>
+      </c>
       <c r="N34">
         <v>5500</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="22"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="16"/>
+      <c r="B35" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16">
+        <v>8000</v>
+      </c>
       <c r="F35" s="16"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="16"/>
+      <c r="G35" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="H35" s="22"/>
+      <c r="I35" s="16">
+        <v>8000</v>
+      </c>
       <c r="J35" s="16"/>
       <c r="L35" s="24">
         <f>L33-L34</f>
         <v>11850</v>
       </c>
-      <c r="M35" s="24"/>
+      <c r="M35" s="24">
+        <f>M33-M34</f>
+        <v>19850</v>
+      </c>
       <c r="N35">
         <v>2500</v>
       </c>
@@ -15343,7 +15398,9 @@
       <c r="L36" s="24">
         <v>5000</v>
       </c>
-      <c r="M36" s="24"/>
+      <c r="M36" s="24">
+        <v>5500</v>
+      </c>
       <c r="N36">
         <f>N34-N35</f>
         <v>3000</v>
@@ -15362,7 +15419,10 @@
         <f>L35-L36</f>
         <v>6850</v>
       </c>
-      <c r="M37" s="24"/>
+      <c r="M37" s="24">
+        <f>M35-M36</f>
+        <v>14350</v>
+      </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="15" t="s">
@@ -15375,31 +15435,34 @@
       </c>
       <c r="E38" s="19">
         <f>SUM(E29:E37)</f>
-        <v>39650</v>
+        <v>51150</v>
       </c>
       <c r="F38" s="19">
         <f>D38-E38</f>
-        <v>9350</v>
+        <v>-2150</v>
       </c>
       <c r="G38" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H38" s="19">
         <f>H25+H28+H26+H27-I29</f>
-        <v>-19250</v>
+        <v>18560</v>
       </c>
       <c r="I38" s="19">
         <f>SUM(I31:I37)</f>
-        <v>35000</v>
+        <v>44860</v>
       </c>
       <c r="J38" s="19">
         <f>H38-I38</f>
-        <v>-54250</v>
+        <v>-26300</v>
       </c>
       <c r="L38">
         <v>2500</v>
       </c>
-      <c r="M38" s="24"/>
+      <c r="M38" s="24">
+        <f>5000</f>
+        <v>5000</v>
+      </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
@@ -15412,7 +15475,10 @@
         <f>L37-L38</f>
         <v>4350</v>
       </c>
-      <c r="M39" s="24"/>
+      <c r="M39" s="24">
+        <f>M37-M38</f>
+        <v>9350</v>
+      </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
@@ -15424,10 +15490,28 @@
       <c r="H40" t="s">
         <v>27</v>
       </c>
+      <c r="M40">
+        <v>3500</v>
+      </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>25</v>
+      </c>
+      <c r="M41" s="24">
+        <f>M39-M40</f>
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M43" s="24">
+        <f>M41-M42</f>
+        <v>-2150</v>
       </c>
     </row>
   </sheetData>
